--- a/biology/Botanique/Trichosanthine/Trichosanthine.xlsx
+++ b/biology/Botanique/Trichosanthine/Trichosanthine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La trichosanthine (TCS) est une protéine inactivant les ribosomes[1] (en anglais : ribosome-inactivating protein) de type I, trouvée dans la racine de Trichosanthes kirilowii, une plante de la famille des Cucurbitaceae[2],[3],[4]. D'une masse moléculaire de 27 kDa, elle possède une activité de N-glycosidase[5]. 
+La trichosanthine (TCS) est une protéine inactivant les ribosomes (en anglais : ribosome-inactivating protein) de type I, trouvée dans la racine de Trichosanthes kirilowii, une plante de la famille des Cucurbitaceae. D'une masse moléculaire de 27 kDa, elle possède une activité de N-glycosidase. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Biochimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle inhibe la transformation induite par la ConA dans les lymphocytes isolés de la rate chez la souris[6]. L'interaction entre la trichosanthine et la protéine ribosomale recombinante L10a a été démontrée par un essai de liaison in vitro. L'analyse cinétique utilisant la technologie de résonance des plasmons de surface révèle que L10a a une forte affinité (K(D) = 7,78 nM) pour la trichosanthine. En utilisant des mutants de la trichosanthine, la corrélation de cette association spécifique avec l'activité d'inactivation du ribosome de la trichosanthine a été démontrée[7]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle inhibe la transformation induite par la ConA dans les lymphocytes isolés de la rate chez la souris. L'interaction entre la trichosanthine et la protéine ribosomale recombinante L10a a été démontrée par un essai de liaison in vitro. L'analyse cinétique utilisant la technologie de résonance des plasmons de surface révèle que L10a a une forte affinité (K(D) = 7,78 nM) pour la trichosanthine. En utilisant des mutants de la trichosanthine, la corrélation de cette association spécifique avec l'activité d'inactivation du ribosome de la trichosanthine a été démontrée. 
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Propriétés pharmacologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La trichosanthine exerce une action immunosuppressive analogue à celle des momorcharines[8],[9]. 
-C'est aussi une substance avec un fort pouvoir abortif[10],[11]. La trichosanthine est utilisée dans la médecine officielle chinoise pour provoquer l'avortement[12].
-Plusieurs possibilités ont été envisagées pour l'utilisation des immunotoxines à base de RIP en thérapie[4]. La trichosanthine a été étudiée en tant qu'agent antiviral pour le traitement du SIDA[13],[14],[15]. On a montré qu'elle a une activité puissante contre les lymphocytes T et les macrophages infectés par le HIV-1[16]. Malheureusement, les tentatives de traitement des patients infectés par le VIH n'ont pas abouti à une guérison, mais plutôt une aggravation des symptômes mentaux[17] ou neurologiques semble se produire[18],[19].
-Elle supprime également la croissance d'une tumeur maligne murine (MBL-2), in vitro et in vivo[20],[21],[22].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La trichosanthine exerce une action immunosuppressive analogue à celle des momorcharines,. 
+C'est aussi une substance avec un fort pouvoir abortif,. La trichosanthine est utilisée dans la médecine officielle chinoise pour provoquer l'avortement.
+Plusieurs possibilités ont été envisagées pour l'utilisation des immunotoxines à base de RIP en thérapie. La trichosanthine a été étudiée en tant qu'agent antiviral pour le traitement du SIDA. On a montré qu'elle a une activité puissante contre les lymphocytes T et les macrophages infectés par le HIV-1. Malheureusement, les tentatives de traitement des patients infectés par le VIH n'ont pas abouti à une guérison, mais plutôt une aggravation des symptômes mentaux ou neurologiques semble se produire,.
+Elle supprime également la croissance d'une tumeur maligne murine (MBL-2), in vitro et in vivo.
 </t>
         </is>
       </c>
